--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPL_1.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPL_1.XLSX
@@ -136,10 +136,10 @@
     <t>VANIA MARQUES DA COSTA</t>
   </si>
   <si>
-    <t>JULIANA DE OLIVEIRA DOS SANTOS</t>
+    <t>DAVI DOS SANTOS NEVES</t>
   </si>
   <si>
-    <t> </t>
+    <t>JULIANA DE OLIVEIRA DOS SANTOS</t>
   </si>
   <si>
     <t> </t>
@@ -154,10 +154,10 @@
     <t>2932</t>
   </si>
   <si>
-    <t>3519</t>
+    <t>3120</t>
   </si>
   <si>
-    <t> </t>
+    <t>3519</t>
   </si>
   <si>
     <t> </t>
@@ -3527,11 +3527,11 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
@@ -3578,11 +3578,11 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3907,11 +3907,11 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
@@ -3934,11 +3934,11 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
@@ -3958,11 +3958,11 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6611,11 +6611,11 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6636,11 +6636,11 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6943,11 +6943,11 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
@@ -6968,11 +6968,11 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPL_1.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPL_1.XLSX
@@ -133,6 +133,9 @@
     <t>KENI CAETANO ANTUNES MALAQUIAS</t>
   </si>
   <si>
+    <t>FERNANDO M. C. DUQUE ESTRADA</t>
+  </si>
+  <si>
     <t>VANIA MARQUES DA COSTA</t>
   </si>
   <si>
@@ -145,10 +148,10 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
+    <t>1098</t>
   </si>
   <si>
-    <t>1098</t>
+    <t>1199</t>
   </si>
   <si>
     <t>2932</t>
@@ -163,19 +166,16 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>SETOR IPL</t>
   </si>
   <si>
     <t>IPL_1</t>
   </si>
   <si>
-    <t>KENI CAETANO ANTUNES MALAQUIAS</t>
+    <t>FERNANDO M. C. DUQUE ESTRADA</t>
   </si>
   <si>
-    <t>Matr.: 1098</t>
+    <t>Matr.: 1199</t>
   </si>
   <si>
     <r>
@@ -3523,19 +3523,19 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>VANIA MARQUES DA COSTA</v>
+        <v>FERNANDO M. C. DUQUE ESTRADA</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>DAVI DOS SANTOS NEVES</v>
+        <v>VANIA MARQUES DA COSTA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3550,19 +3550,19 @@
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>VANIA MARQUES DA COSTA</v>
+        <v>FERNANDO M. C. DUQUE ESTRADA</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>DAVI DOS SANTOS NEVES</v>
+        <v>VANIA MARQUES DA COSTA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3574,19 +3574,19 @@
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>VANIA MARQUES DA COSTA</v>
+        <v>FERNANDO M. C. DUQUE ESTRADA</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>DAVI DOS SANTOS NEVES</v>
+        <v>VANIA MARQUES DA COSTA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3598,19 +3598,19 @@
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>VANIA MARQUES DA COSTA</v>
+        <v>FERNANDO M. C. DUQUE ESTRADA</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>DAVI DOS SANTOS NEVES</v>
+        <v>VANIA MARQUES DA COSTA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3903,19 +3903,19 @@
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>2932</v>
+        <v>1199</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3120</v>
+        <v>2932</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3930,19 +3930,19 @@
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>2932</v>
+        <v>1199</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3120</v>
+        <v>2932</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3954,19 +3954,19 @@
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>2932</v>
+        <v>1199</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3120</v>
+        <v>2932</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3978,19 +3978,19 @@
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>2932</v>
+        <v>1199</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>2932</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6324,7 +6324,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>KENI CAETANO ANTUNES MALAQUIAS</v>
+        <v>FERNANDO M. C. DUQUE ESTRADA</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6413,7 +6413,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 1098</v>
+        <v>Matr.: 1199</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
@@ -6607,19 +6607,19 @@
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>VANIA MARQUES DA COSTA</v>
+        <v>FERNANDO M. C. DUQUE ESTRADA</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>DAVI DOS SANTOS NEVES</v>
+        <v>VANIA MARQUES DA COSTA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6632,19 +6632,19 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>VANIA MARQUES DA COSTA</v>
+        <v>FERNANDO M. C. DUQUE ESTRADA</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>DAVI DOS SANTOS NEVES</v>
+        <v>VANIA MARQUES DA COSTA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
+        <v>DAVI DOS SANTOS NEVES</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>JULIANA DE OLIVEIRA DOS SANTOS</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6939,19 +6939,19 @@
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2932</v>
+        <v>1199</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3120</v>
+        <v>2932</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6964,19 +6964,19 @@
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2932</v>
+        <v>1199</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3120</v>
+        <v>2932</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3519</v>
+        <v>3120</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
